--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 61434-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 61434-2018.xlsx", "A 61434-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 61434-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 61434-2018.png", "A 61434-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 61434-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 61434-2018.docx", "A 61434-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 61434-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 61434-2018.docx", "A 61434-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 61434-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 61434-2018.docx", "A 61434-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 61434-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 61434-2018.docx", "A 61434-2018")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 14609-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 14609-2019.xlsx", "A 14609-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 14609-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 14609-2019.png", "A 14609-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 14609-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 14609-2019.docx", "A 14609-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 14609-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 14609-2019.docx", "A 14609-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 14609-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 14609-2019.docx", "A 14609-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 14609-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 14609-2019.docx", "A 14609-2019")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 29458-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 29458-2019.xlsx", "A 29458-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 29458-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 29458-2019.png", "A 29458-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 29458-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 29458-2019.docx", "A 29458-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 29458-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 29458-2019.docx", "A 29458-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 29458-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 29458-2019.docx", "A 29458-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 29458-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 29458-2019.docx", "A 29458-2019")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,27 +890,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 4312-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 4312-2023.xlsx", "A 4312-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 4312-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 4312-2023.png", "A 4312-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 4312-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 4312-2023.docx", "A 4312-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 4312-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 4312-2023.docx", "A 4312-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 4312-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 4312-2023.docx", "A 4312-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 4312-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 4312-2023.docx", "A 4312-2023")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -975,27 +975,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 1300-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 1300-2019.xlsx", "A 1300-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 1300-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 1300-2019.png", "A 1300-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 1300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 1300-2019.docx", "A 1300-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 1300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 1300-2019.docx", "A 1300-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 1300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 1300-2019.docx", "A 1300-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 1300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 1300-2019.docx", "A 1300-2019")</f>
         <v/>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1060,27 +1060,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 24911-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 24911-2019.xlsx", "A 24911-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 24911-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 24911-2019.png", "A 24911-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 24911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 24911-2019.docx", "A 24911-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 24911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 24911-2019.docx", "A 24911-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 24911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 24911-2019.docx", "A 24911-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 24911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 24911-2019.docx", "A 24911-2019")</f>
         <v/>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,27 +1145,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 41622-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 41622-2019.xlsx", "A 41622-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 41622-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 41622-2019.png", "A 41622-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 41622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 41622-2019.docx", "A 41622-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 41622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 41622-2019.docx", "A 41622-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 41622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 41622-2019.docx", "A 41622-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 41622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 41622-2019.docx", "A 41622-2019")</f>
         <v/>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1230,27 +1230,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 43545-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 43545-2019.xlsx", "A 43545-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 43545-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 43545-2019.png", "A 43545-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 43545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 43545-2019.docx", "A 43545-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 43545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 43545-2019.docx", "A 43545-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 43545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 43545-2019.docx", "A 43545-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 43545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 43545-2019.docx", "A 43545-2019")</f>
         <v/>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1315,27 +1315,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 3596-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 3596-2020.xlsx", "A 3596-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 3596-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 3596-2020.png", "A 3596-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 3596-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 3596-2020.docx", "A 3596-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 3596-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 3596-2020.docx", "A 3596-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 3596-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 3596-2020.docx", "A 3596-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 3596-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 3596-2020.docx", "A 3596-2020")</f>
         <v/>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,27 +1400,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 6492-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 6492-2020.xlsx", "A 6492-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 6492-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 6492-2020.png", "A 6492-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 6492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 6492-2020.docx", "A 6492-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 6492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 6492-2020.docx", "A 6492-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 6492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 6492-2020.docx", "A 6492-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 6492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 6492-2020.docx", "A 6492-2020")</f>
         <v/>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1485,27 +1485,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 57206-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 57206-2020.xlsx", "A 57206-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 57206-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 57206-2020.png", "A 57206-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 57206-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 57206-2020.docx", "A 57206-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 57206-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 57206-2020.docx", "A 57206-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 57206-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 57206-2020.docx", "A 57206-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 57206-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 57206-2020.docx", "A 57206-2020")</f>
         <v/>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1570,27 +1570,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 17546-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 17546-2021.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 17546-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 17546-2021.png", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 17546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 17546-2021.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 17546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 17546-2021.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 17546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 17546-2021.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 17546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 17546-2021.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,27 +1660,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 17770-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 17770-2021.xlsx", "A 17770-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 17770-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 17770-2021.png", "A 17770-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 17770-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 17770-2021.docx", "A 17770-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 17770-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 17770-2021.docx", "A 17770-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 17770-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 17770-2021.docx", "A 17770-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 17770-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 17770-2021.docx", "A 17770-2021")</f>
         <v/>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,27 +1745,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 25884-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 25884-2021.xlsx", "A 25884-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 25884-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 25884-2021.png", "A 25884-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 25884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 25884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 25884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 25884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1830,27 +1830,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 59679-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 59679-2021.xlsx", "A 59679-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 59679-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 59679-2021.png", "A 59679-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 59679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 59679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 59679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 59679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,27 +1915,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9277-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9277-2023.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9277-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9277-2023.png", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9277-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9277-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9277-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9277-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2000,27 +2000,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9136-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9136-2023.xlsx", "A 9136-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9136-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9136-2023.png", "A 9136-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9136-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9136-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9136-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9136-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44344</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44980</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44980</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43321</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43454</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43495</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43514</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43522</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43559</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43600</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43600</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43612</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43612</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43619</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43619</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43633</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43685</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43712</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43717</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43717</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43739</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43767</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43770</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43774</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43774</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43816</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43853</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43853</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43865</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43865</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43885</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43895</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43909</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43913</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43914</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43916</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43956</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43962</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43969</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43976</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43977</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44022</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44022</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44047</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44047</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44048</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44067</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44069</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44081</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44081</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44085</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44128</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44137</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44139</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44147</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44188</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44201</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44230</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44231</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44245</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44265</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44319</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44370</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44382</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44459</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y267"/>
+  <dimension ref="A1:Y271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 25884-2021</t>
+          <t>A 21050-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44344</v>
+        <v>44319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1731,424 +1731,488 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 21050-2021.xlsx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 21050-2021.png", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/knärot/A 21050-2021.png", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 21050-2021.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 21050-2021.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 21050-2021.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 21050-2021.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 25884-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 25884-2021.xlsx", "A 25884-2021")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 25884-2021.png", "A 25884-2021")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 25884-2021.docx", "A 25884-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 50318-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44459</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 50318-2021.xlsx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 50318-2021.png", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/knärot/A 50318-2021.png", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 50318-2021.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 50318-2021.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 50318-2021.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 50318-2021.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 59679-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44494</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>15</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Backsvala</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 59679-2021.xlsx", "A 59679-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 59679-2021.png", "A 59679-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 59679-2021.docx", "A 59679-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 9277-2023</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44980</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>1.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9277-2023.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9277-2023.png", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9277-2023.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 9136-2023</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44980</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>2.1</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Lundbräsma</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/artfynd/A 9136-2023.xlsx", "A 9136-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/kartor/A 9136-2023.png", "A 9136-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomål/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/klagomålsmail/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsyn/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_SKARA/tillsynsmail/A 9136-2023.docx", "A 9136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 34945-2018</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>43321</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 36922-2018</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>43332</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 37730-2018</t>
+          <t>A 34945-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43335</v>
+        <v>43321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2161,7 +2225,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2198,14 +2262,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42067-2018</t>
+          <t>A 36922-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43349</v>
+        <v>43332</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2218,7 +2282,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2255,14 +2319,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49745-2018</t>
+          <t>A 37730-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43375</v>
+        <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2275,7 +2339,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2312,14 +2376,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 53666-2018</t>
+          <t>A 42067-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43385</v>
+        <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2332,7 +2396,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2369,14 +2433,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 53104-2018</t>
+          <t>A 49745-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43390</v>
+        <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2389,7 +2453,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2426,14 +2490,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 56879-2018</t>
+          <t>A 53666-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43395</v>
+        <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2446,7 +2510,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2483,14 +2547,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61323-2018</t>
+          <t>A 53104-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43412</v>
+        <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2503,7 +2567,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2540,14 +2604,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61810-2018</t>
+          <t>A 56879-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43425</v>
+        <v>43395</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2560,7 +2624,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2597,14 +2661,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61812-2018</t>
+          <t>A 61323-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43425</v>
+        <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2617,7 +2681,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2654,14 +2718,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 65632-2018</t>
+          <t>A 61810-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43426</v>
+        <v>43425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2673,13 +2737,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2775,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 66765-2018</t>
+          <t>A 61812-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43437</v>
+        <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,13 +2794,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2778,14 +2832,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 67436-2018</t>
+          <t>A 65632-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43439</v>
+        <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,8 +2851,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2835,14 +2894,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 67331-2018</t>
+          <t>A 66765-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43439</v>
+        <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,8 +2913,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2892,14 +2956,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 67975-2018</t>
+          <t>A 67436-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43440</v>
+        <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2976,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +3013,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 67973-2018</t>
+          <t>A 67331-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43440</v>
+        <v>43439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +3033,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3070,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 71412-2018</t>
+          <t>A 67975-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43453</v>
+        <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,13 +3089,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3127,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 71670-2018</t>
+          <t>A 67973-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43454</v>
+        <v>43440</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3088,7 +3147,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3125,14 +3184,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 71700-2018</t>
+          <t>A 71412-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43454</v>
+        <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3150,7 +3209,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3187,14 +3246,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2841-2019</t>
+          <t>A 71670-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43472</v>
+        <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3207,7 +3266,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3244,14 +3303,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2834-2019</t>
+          <t>A 71700-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43472</v>
+        <v>43454</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,8 +3322,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3301,14 +3365,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1457-2019</t>
+          <t>A 2841-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3321,7 +3385,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3358,14 +3422,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1386-2019</t>
+          <t>A 2834-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3378,7 +3442,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.9</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3479,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1360-2019</t>
+          <t>A 1457-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3435,7 +3499,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3536,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1459-2019</t>
+          <t>A 1386-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3556,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>7.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3593,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1369-2019</t>
+          <t>A 1360-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3549,7 +3613,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3650,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8374-2019</t>
+          <t>A 1459-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3670,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3707,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10221-2019</t>
+          <t>A 1369-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43510</v>
+        <v>43473</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3727,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3764,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10218-2019</t>
+          <t>A 8374-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43510</v>
+        <v>43495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3784,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3821,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10737-2019</t>
+          <t>A 10221-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43514</v>
+        <v>43510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3777,7 +3841,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3878,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11222-2019</t>
+          <t>A 10218-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43516</v>
+        <v>43510</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3834,7 +3898,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3871,14 +3935,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11296-2019</t>
+          <t>A 10737-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43516</v>
+        <v>43514</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3891,7 +3955,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3928,14 +3992,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11509-2019</t>
+          <t>A 11222-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3948,7 +4012,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3985,14 +4049,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12041-2019</t>
+          <t>A 11296-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43522</v>
+        <v>43516</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4005,7 +4069,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4042,14 +4106,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12166-2019</t>
+          <t>A 11509-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43522</v>
+        <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4062,7 +4126,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4099,14 +4163,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12039-2019</t>
+          <t>A 12041-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,14 +4220,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12037-2019</t>
+          <t>A 12166-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4176,7 +4240,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4213,14 +4277,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15771-2019</t>
+          <t>A 12039-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43543</v>
+        <v>43522</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4233,7 +4297,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4270,14 +4334,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17765-2019</t>
+          <t>A 12037-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43556</v>
+        <v>43522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4290,7 +4354,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4327,14 +4391,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18320-2019</t>
+          <t>A 15771-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43559</v>
+        <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4347,7 +4411,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4384,14 +4448,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22741-2019</t>
+          <t>A 17765-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43588</v>
+        <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4404,7 +4468,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4441,14 +4505,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24507-2019</t>
+          <t>A 18320-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43600</v>
+        <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,13 +4524,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4503,14 +4562,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24545-2019</t>
+          <t>A 22741-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43600</v>
+        <v>43588</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4582,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4560,14 +4619,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26432-2019</t>
+          <t>A 24507-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43606</v>
+        <v>43600</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4577,6 +4636,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -4617,14 +4681,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25579-2019</t>
+          <t>A 24545-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43607</v>
+        <v>43600</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4637,7 +4701,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4674,14 +4738,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26418-2019</t>
+          <t>A 26432-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43612</v>
+        <v>43606</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,13 +4757,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4736,14 +4795,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26570-2019</t>
+          <t>A 25579-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43612</v>
+        <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4815,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4793,14 +4852,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26577-2019</t>
+          <t>A 26418-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4812,8 +4871,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4850,14 +4914,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26599-2019</t>
+          <t>A 26570-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4870,7 +4934,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4907,14 +4971,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27648-2019</t>
+          <t>A 26577-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43619</v>
+        <v>43612</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,7 +4991,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4964,14 +5028,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27646-2019</t>
+          <t>A 26599-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43619</v>
+        <v>43612</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,7 +5048,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5021,14 +5085,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30494-2019</t>
+          <t>A 27648-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43633</v>
+        <v>43619</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5105,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5078,14 +5142,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30743-2019</t>
+          <t>A 27646-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43636</v>
+        <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5162,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5135,14 +5199,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30865-2019</t>
+          <t>A 30494-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43636</v>
+        <v>43633</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5219,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5192,14 +5256,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36576-2019</t>
+          <t>A 30743-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43671</v>
+        <v>43636</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5276,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5249,14 +5313,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38517-2019</t>
+          <t>A 30865-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43685</v>
+        <v>43636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5333,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5306,14 +5370,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40754-2019</t>
+          <t>A 36576-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43697</v>
+        <v>43671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5390,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5363,14 +5427,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40852-2019</t>
+          <t>A 38517-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43697</v>
+        <v>43685</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5447,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5420,14 +5484,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41689-2019</t>
+          <t>A 40754-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43699</v>
+        <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5504,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5477,14 +5541,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41692-2019</t>
+          <t>A 40852-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43699</v>
+        <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5561,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5534,14 +5598,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43748-2019</t>
+          <t>A 41689-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43707</v>
+        <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5554,7 +5618,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5591,14 +5655,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44795-2019</t>
+          <t>A 41692-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43712</v>
+        <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5675,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5648,14 +5712,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44793-2019</t>
+          <t>A 43748-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43712</v>
+        <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5668,7 +5732,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5705,14 +5769,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44799-2019</t>
+          <t>A 44795-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5725,7 +5789,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5762,14 +5826,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45696-2019</t>
+          <t>A 44793-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43717</v>
+        <v>43712</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5782,7 +5846,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5819,14 +5883,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45705-2019</t>
+          <t>A 44799-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43717</v>
+        <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5839,7 +5903,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5876,14 +5940,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45712-2019</t>
+          <t>A 45696-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5896,7 +5960,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>18.1</v>
+        <v>6.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5933,14 +5997,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45742-2019</t>
+          <t>A 45705-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5953,7 +6017,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5990,14 +6054,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45751-2019</t>
+          <t>A 45712-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6010,7 +6074,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>18.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6047,14 +6111,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45670-2019</t>
+          <t>A 45742-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6066,13 +6130,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6109,14 +6168,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45804-2019</t>
+          <t>A 45751-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6129,7 +6188,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6166,14 +6225,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45700-2019</t>
+          <t>A 45670-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6185,8 +6244,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>16.8</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6223,14 +6287,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45744-2019</t>
+          <t>A 45804-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6243,7 +6307,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>10.6</v>
+        <v>5.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6280,14 +6344,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45800-2019</t>
+          <t>A 45700-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6300,7 +6364,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.2</v>
+        <v>16.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6337,14 +6401,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51012-2019</t>
+          <t>A 45744-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43739</v>
+        <v>43717</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6356,13 +6420,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6399,14 +6458,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51014-2019</t>
+          <t>A 45800-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43739</v>
+        <v>43717</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6418,13 +6477,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6461,14 +6515,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51832-2019</t>
+          <t>A 51012-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43741</v>
+        <v>43739</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6480,8 +6534,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6518,14 +6577,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53091-2019</t>
+          <t>A 51014-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43747</v>
+        <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6537,8 +6596,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6575,14 +6639,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57192-2019</t>
+          <t>A 51832-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43767</v>
+        <v>43741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,7 +6659,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6632,14 +6696,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58244-2019</t>
+          <t>A 53091-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43770</v>
+        <v>43747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6651,13 +6715,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6694,14 +6753,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58871-2019</t>
+          <t>A 57192-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43774</v>
+        <v>43767</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6714,7 +6773,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6751,14 +6810,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59829-2019</t>
+          <t>A 58244-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43774</v>
+        <v>43770</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6770,8 +6829,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6808,14 +6872,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61017-2019</t>
+          <t>A 58871-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43782</v>
+        <v>43774</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6828,7 +6892,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6865,14 +6929,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62967-2019</t>
+          <t>A 59829-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43790</v>
+        <v>43774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6884,13 +6948,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6927,14 +6986,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 67645-2019</t>
+          <t>A 61017-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43815</v>
+        <v>43782</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6947,7 +7006,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6984,14 +7043,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 67925-2019</t>
+          <t>A 62967-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43816</v>
+        <v>43790</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7005,11 +7064,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7046,14 +7105,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 67923-2019</t>
+          <t>A 67645-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7065,13 +7124,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7108,14 +7162,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3582-2020</t>
+          <t>A 67925-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43853</v>
+        <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7127,8 +7181,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7165,14 +7224,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3593-2020</t>
+          <t>A 67923-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43853</v>
+        <v>43816</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7184,8 +7243,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7222,14 +7286,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3584-2020</t>
+          <t>A 3582-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7242,7 +7306,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7279,14 +7343,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3599-2020</t>
+          <t>A 3593-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7299,7 +7363,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7336,14 +7400,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3632-2020</t>
+          <t>A 3584-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7356,7 +7420,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7393,14 +7457,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5402-2020</t>
+          <t>A 3599-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43860</v>
+        <v>43853</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7413,7 +7477,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7450,14 +7514,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5398-2020</t>
+          <t>A 3632-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43860</v>
+        <v>43853</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7470,7 +7534,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7507,14 +7571,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5980-2020</t>
+          <t>A 5402-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7526,13 +7590,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7569,14 +7628,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5986-2020</t>
+          <t>A 5398-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7589,7 +7648,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7626,14 +7685,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7532-2020</t>
+          <t>A 5980-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43872</v>
+        <v>43865</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7645,8 +7704,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7683,14 +7747,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 7625-2020</t>
+          <t>A 5986-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43872</v>
+        <v>43865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7703,7 +7767,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7740,14 +7804,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7528-2020</t>
+          <t>A 7532-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7760,7 +7824,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7797,14 +7861,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7624-2020</t>
+          <t>A 7625-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7817,7 +7881,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7854,14 +7918,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7608-2020</t>
+          <t>A 7528-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7874,7 +7938,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7911,14 +7975,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7617-2020</t>
+          <t>A 7624-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7931,7 +7995,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7968,14 +8032,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7611-2020</t>
+          <t>A 7608-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7988,7 +8052,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8025,14 +8089,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10179-2020</t>
+          <t>A 7617-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43885</v>
+        <v>43872</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8045,7 +8109,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8082,14 +8146,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12073-2020</t>
+          <t>A 7611-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43895</v>
+        <v>43872</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8102,7 +8166,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8139,14 +8203,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13159-2020</t>
+          <t>A 10179-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43901</v>
+        <v>43885</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8158,13 +8222,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8201,14 +8260,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13205-2020</t>
+          <t>A 12073-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8221,7 +8280,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8258,14 +8317,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 14722-2020</t>
+          <t>A 13159-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43909</v>
+        <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8277,8 +8336,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8315,14 +8379,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15214-2020</t>
+          <t>A 13205-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43913</v>
+        <v>43901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8335,7 +8399,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8372,14 +8436,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15558-2020</t>
+          <t>A 14722-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8392,7 +8456,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8429,14 +8493,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16085-2020</t>
+          <t>A 15214-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8449,7 +8513,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8486,14 +8550,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 21513-2020</t>
+          <t>A 15558-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43956</v>
+        <v>43914</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8506,7 +8570,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8543,14 +8607,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 22197-2020</t>
+          <t>A 16085-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43962</v>
+        <v>43916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8563,7 +8627,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8600,14 +8664,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22557-2020</t>
+          <t>A 21513-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43963</v>
+        <v>43956</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8620,7 +8684,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8657,14 +8721,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 23544-2020</t>
+          <t>A 22197-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43969</v>
+        <v>43962</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8677,7 +8741,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8714,14 +8778,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 24288-2020</t>
+          <t>A 22557-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43976</v>
+        <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8734,7 +8798,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8771,14 +8835,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24553-2020</t>
+          <t>A 23544-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43977</v>
+        <v>43969</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8791,7 +8855,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8828,14 +8892,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26704-2020</t>
+          <t>A 24288-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43990</v>
+        <v>43976</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8848,7 +8912,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8885,14 +8949,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26702-2020</t>
+          <t>A 24553-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>43990</v>
+        <v>43977</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8905,7 +8969,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8942,14 +9006,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31099-2020</t>
+          <t>A 26704-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44012</v>
+        <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8962,7 +9026,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8999,14 +9063,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33394-2020</t>
+          <t>A 26702-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44022</v>
+        <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9019,7 +9083,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9056,14 +9120,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33388-2020</t>
+          <t>A 31099-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44022</v>
+        <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9076,7 +9140,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9113,14 +9177,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35896-2020</t>
+          <t>A 33394-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44047</v>
+        <v>44022</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,13 +9196,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9175,14 +9234,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35897-2020</t>
+          <t>A 33388-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44047</v>
+        <v>44022</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9194,13 +9253,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9237,14 +9291,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36103-2020</t>
+          <t>A 35896-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9256,8 +9310,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9294,14 +9353,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 36675-2020</t>
+          <t>A 35897-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44051</v>
+        <v>44047</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9313,8 +9372,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9351,14 +9415,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37439-2020</t>
+          <t>A 36103-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44055</v>
+        <v>44048</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9371,7 +9435,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9408,14 +9472,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 40045-2020</t>
+          <t>A 36675-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44067</v>
+        <v>44051</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9428,7 +9492,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9465,14 +9529,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 40677-2020</t>
+          <t>A 37439-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44069</v>
+        <v>44055</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9485,7 +9549,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9522,14 +9586,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41858-2020</t>
+          <t>A 40045-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44074</v>
+        <v>44067</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9542,7 +9606,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9579,14 +9643,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41856-2020</t>
+          <t>A 40677-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44074</v>
+        <v>44069</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9599,7 +9663,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9636,14 +9700,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41855-2020</t>
+          <t>A 41858-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9656,7 +9720,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9693,14 +9757,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43338-2020</t>
+          <t>A 41856-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44081</v>
+        <v>44074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9713,7 +9777,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9750,14 +9814,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43434-2020</t>
+          <t>A 41855-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44081</v>
+        <v>44074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9834,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9807,14 +9871,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 44517-2020</t>
+          <t>A 43338-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44085</v>
+        <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9826,13 +9890,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9928,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44519-2020</t>
+          <t>A 43434-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44085</v>
+        <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,13 +9947,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9931,14 +9985,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44520-2020</t>
+          <t>A 44517-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +10010,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9993,14 +10047,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45413-2020</t>
+          <t>A 44519-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44089</v>
+        <v>44085</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10072,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10055,14 +10109,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47028-2020</t>
+          <t>A 44520-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44096</v>
+        <v>44085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,8 +10128,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10112,14 +10171,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48903-2020</t>
+          <t>A 45413-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44104</v>
+        <v>44089</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,8 +10190,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10169,14 +10233,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54898-2020</t>
+          <t>A 47028-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44128</v>
+        <v>44096</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10189,7 +10253,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10226,14 +10290,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56995-2020</t>
+          <t>A 48903-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10246,7 +10310,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10283,14 +10347,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57207-2020</t>
+          <t>A 54898-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44139</v>
+        <v>44128</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10303,7 +10367,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>9.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10340,14 +10404,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59274-2020</t>
+          <t>A 56995-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44147</v>
+        <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10360,7 +10424,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>7.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10397,14 +10461,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 59497-2020</t>
+          <t>A 57207-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44148</v>
+        <v>44139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10417,7 +10481,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10454,14 +10518,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59498-2020</t>
+          <t>A 59274-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10474,7 +10538,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10511,14 +10575,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 69052-2020</t>
+          <t>A 59497-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44188</v>
+        <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10531,7 +10595,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10568,14 +10632,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 539-2021</t>
+          <t>A 59498-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44201</v>
+        <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10588,7 +10652,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10625,14 +10689,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3476-2021</t>
+          <t>A 69052-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44218</v>
+        <v>44188</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,13 +10708,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10687,14 +10746,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3481-2021</t>
+          <t>A 539-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44218</v>
+        <v>44201</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10707,7 +10766,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10744,14 +10803,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5588-2021</t>
+          <t>A 3476-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44230</v>
+        <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10763,8 +10822,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10801,14 +10865,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5959-2021</t>
+          <t>A 3481-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10821,7 +10885,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10858,14 +10922,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8466-2021</t>
+          <t>A 5588-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44245</v>
+        <v>44230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10878,7 +10942,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10915,14 +10979,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 5959-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44265</v>
+        <v>44231</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10935,7 +10999,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10972,14 +11036,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12503-2021</t>
+          <t>A 8466-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44268</v>
+        <v>44245</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11029,14 +11093,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21050-2021</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44319</v>
+        <v>44265</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11049,7 +11113,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11086,14 +11150,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23800-2021</t>
+          <t>A 12503-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44334</v>
+        <v>44268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11106,7 +11170,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11143,14 +11207,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 31984-2021</t>
+          <t>A 23800-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44370</v>
+        <v>44334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11163,7 +11227,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11200,14 +11264,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 31984-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44378</v>
+        <v>44370</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11220,7 +11284,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11257,14 +11321,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 33938-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11277,7 +11341,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11314,14 +11378,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11334,7 +11398,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11371,14 +11435,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11428,14 +11492,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11448,7 +11512,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11485,14 +11549,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44433</v>
+        <v>44386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11505,7 +11569,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11542,14 +11606,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49374-2021</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11562,7 +11626,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11599,14 +11663,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 49431-2021</t>
+          <t>A 49374-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11619,7 +11683,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11656,14 +11720,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50318-2021</t>
+          <t>A 49431-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44459</v>
+        <v>44454</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11676,7 +11740,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11720,7 +11784,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11841,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11898,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11955,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +12012,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12069,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12126,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12124,7 +12188,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12186,7 +12250,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12243,7 +12307,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12300,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12357,7 +12421,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12414,7 +12478,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12476,7 +12540,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12538,7 +12602,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12595,7 +12659,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12657,7 +12721,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12714,7 +12778,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12776,7 +12840,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12833,7 +12897,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12890,7 +12954,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12947,7 +13011,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13004,7 +13068,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13061,7 +13125,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13118,7 +13182,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13175,7 +13239,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13232,7 +13296,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13353,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13346,7 +13410,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13403,7 +13467,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13460,7 +13524,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13517,7 +13581,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13574,7 +13638,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13631,7 +13695,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13688,7 +13752,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13745,7 +13809,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13866,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13923,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13980,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13973,7 +14037,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14030,7 +14094,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14087,7 +14151,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14144,7 +14208,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14201,7 +14265,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14258,7 +14322,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14315,7 +14379,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14372,7 +14436,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14429,7 +14493,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14486,7 +14550,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14543,7 +14607,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14600,7 +14664,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14657,7 +14721,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14714,7 +14778,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14771,7 +14835,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14828,7 +14892,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14885,7 +14949,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14942,7 +15006,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14999,7 +15063,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15056,7 +15120,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15113,7 +15177,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15170,7 +15234,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15227,7 +15291,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15284,7 +15348,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15341,7 +15405,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15462,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15455,7 +15519,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15576,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15633,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15690,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15688,7 +15752,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15745,7 +15809,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15802,7 +15866,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15923,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15980,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +16037,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16094,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16087,7 +16151,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16208,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16265,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16322,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16305,7 +16369,7 @@
       </c>
       <c r="R266" s="2" t="inlineStr"/>
     </row>
-    <row r="267">
+    <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
           <t>A 36470-2023</t>
@@ -16315,7 +16379,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16361,6 +16425,234 @@
         <v>0</v>
       </c>
       <c r="R267" s="2" t="inlineStr"/>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>A 46197-2023</t>
+        </is>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>A 46185-2023</t>
+        </is>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" s="2" t="inlineStr"/>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>A 46184-2023</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>A 46194-2023</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44494</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>44980</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44980</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43332</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43395</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43440</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43454</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43473</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43510</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43514</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43516</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43516</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43522</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43588</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43600</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43600</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43606</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43612</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43612</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43619</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>43633</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>43636</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43685</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43712</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43717</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43717</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43739</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43767</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43770</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43774</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43790</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43816</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43853</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43853</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43865</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43872</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43872</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43885</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43895</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43909</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43913</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43914</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43956</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43962</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43969</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43976</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43977</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44022</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44022</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44047</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44047</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44048</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44051</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44055</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44067</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44069</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44085</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44089</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44096</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44128</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44147</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44188</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44201</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44231</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44245</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44265</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44370</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44378</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44382</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44433</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44454</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45196</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45196</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45196</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45196</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44494</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>44980</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44980</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43332</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43395</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43440</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43454</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43473</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43510</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43514</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43516</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43516</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43522</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43588</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43600</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43600</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43606</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43612</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43612</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43619</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>43633</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>43636</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43685</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43712</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43717</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43717</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43739</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43767</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43770</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43774</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43790</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43816</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43853</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43853</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43865</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43872</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43872</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43885</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43895</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43909</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43913</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43914</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43956</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43962</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43969</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43976</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43977</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44022</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44022</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44047</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44047</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44048</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44051</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44055</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44067</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44069</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44085</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44089</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44096</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44128</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44147</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44188</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44201</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44231</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44245</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44265</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44370</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44378</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44382</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44433</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44454</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45196</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45196</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45196</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45196</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -572,7 +572,7 @@
         <v>43424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43537</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43706</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44300</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44494</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>44980</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44980</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43332</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43395</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43437</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43440</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43454</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43473</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43510</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43514</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43516</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43516</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43522</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43522</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43588</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43600</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43600</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43606</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43612</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43612</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43612</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43619</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43619</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>43633</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>43636</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43685</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43712</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43712</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43717</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43717</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43717</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43717</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43717</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43717</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43739</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43767</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43770</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43774</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43790</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43816</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43853</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43853</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43853</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43853</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43865</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43872</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43872</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43872</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43872</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43872</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43885</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43895</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43909</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43913</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43914</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43956</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43962</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43969</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43976</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43977</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44022</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44022</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44047</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44047</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44048</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44051</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44055</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44067</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44069</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44085</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44085</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44089</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44096</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44128</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44147</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44188</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44201</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44231</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44245</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44265</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44370</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44378</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44382</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44382</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44433</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44454</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44496</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44560</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44567</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44573</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44659</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44659</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44687</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44687</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44701</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44799</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44818</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44892</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44895</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44895</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44903</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44946</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44984</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44995</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45043</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45043</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45043</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45086</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45090</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45090</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45090</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45091</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45091</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45091</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45091</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45091</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45091</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45099</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45109</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45109</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45140</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45149</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45196</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45196</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45196</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45196</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
